--- a/data/raw/KWS patient metadata.xlsx
+++ b/data/raw/KWS patient metadata.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24580" windowHeight="15600" tabRatio="790" activeTab="5"/>
+    <workbookView xWindow="8740" yWindow="0" windowWidth="24580" windowHeight="15600" tabRatio="790" firstSheet="4" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Demo" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Follow Up" sheetId="10" r:id="rId12"/>
     <sheet name="Off Study" sheetId="11" r:id="rId13"/>
     <sheet name="Issues" sheetId="13" r:id="rId14"/>
+    <sheet name="Sheet1" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -1276,21 +1277,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -1310,6 +1296,21 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2305,7 +2306,7 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="47" t="s">
         <v>79</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2343,7 +2344,7 @@
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="39"/>
+      <c r="A3" s="47"/>
       <c r="B3" s="1" t="s">
         <v>70</v>
       </c>
@@ -2379,7 +2380,7 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="39"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="1" t="s">
         <v>71</v>
       </c>
@@ -2415,7 +2416,7 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="39"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="1" t="s">
         <v>72</v>
       </c>
@@ -2442,7 +2443,7 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="39"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="1" t="s">
         <v>73</v>
       </c>
@@ -2466,7 +2467,7 @@
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="39"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="1" t="s">
         <v>74</v>
       </c>
@@ -2484,7 +2485,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A8" s="39"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="1" t="s">
         <v>75</v>
       </c>
@@ -2499,7 +2500,7 @@
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="39"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="1" t="s">
         <v>76</v>
       </c>
@@ -2514,7 +2515,7 @@
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="39"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="1" t="s">
         <v>77</v>
       </c>
@@ -2526,7 +2527,7 @@
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="39"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="1" t="s">
         <v>78</v>
       </c>
@@ -2582,7 +2583,7 @@
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="47" t="s">
         <v>79</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -2620,7 +2621,7 @@
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="39"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="1" t="s">
         <v>70</v>
       </c>
@@ -2656,7 +2657,7 @@
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="39"/>
+      <c r="A17" s="47"/>
       <c r="B17" s="1" t="s">
         <v>71</v>
       </c>
@@ -2692,7 +2693,7 @@
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="39"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="1" t="s">
         <v>72</v>
       </c>
@@ -2717,7 +2718,7 @@
       <c r="L18" s="22"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="39"/>
+      <c r="A19" s="47"/>
       <c r="B19" s="1" t="s">
         <v>73</v>
       </c>
@@ -2738,7 +2739,7 @@
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="39"/>
+      <c r="A20" s="47"/>
       <c r="B20" s="1" t="s">
         <v>74</v>
       </c>
@@ -2747,25 +2748,25 @@
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="39"/>
+      <c r="A21" s="47"/>
       <c r="B21" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="39"/>
+      <c r="A22" s="47"/>
       <c r="B22" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="39"/>
+      <c r="A23" s="47"/>
       <c r="B23" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="39"/>
+      <c r="A24" s="47"/>
       <c r="B24" s="1" t="s">
         <v>78</v>
       </c>
@@ -2776,10 +2777,10 @@
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="C26" s="40" t="s">
+      <c r="C26" s="48" t="s">
         <v>177</v>
       </c>
-      <c r="D26" s="40"/>
+      <c r="D26" s="48"/>
     </row>
     <row r="32" spans="1:12">
       <c r="I32" s="12"/>
@@ -4022,6 +4023,23 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5710,7 +5728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
@@ -5812,10 +5830,10 @@
       <c r="F2" s="34">
         <v>205</v>
       </c>
-      <c r="G2" s="45">
+      <c r="G2" s="40">
         <v>806</v>
       </c>
-      <c r="H2" s="48">
+      <c r="H2" s="43">
         <v>145</v>
       </c>
       <c r="I2" s="34">
@@ -5874,10 +5892,10 @@
       <c r="F3" s="34">
         <v>662</v>
       </c>
-      <c r="G3" s="45">
+      <c r="G3" s="40">
         <v>959</v>
       </c>
-      <c r="H3" s="48">
+      <c r="H3" s="43">
         <v>787</v>
       </c>
       <c r="I3" s="34">
@@ -5936,10 +5954,10 @@
       <c r="F4" s="34">
         <v>271</v>
       </c>
-      <c r="G4" s="45">
+      <c r="G4" s="40">
         <v>248</v>
       </c>
-      <c r="H4" s="48">
+      <c r="H4" s="43">
         <v>625</v>
       </c>
       <c r="I4" s="34">
@@ -5998,10 +6016,10 @@
       <c r="F5" s="34">
         <v>138</v>
       </c>
-      <c r="G5" s="45">
+      <c r="G5" s="40">
         <v>653</v>
       </c>
-      <c r="H5" s="48">
+      <c r="H5" s="43">
         <v>792</v>
       </c>
       <c r="I5" s="34">
@@ -6060,10 +6078,10 @@
       <c r="F6" s="34">
         <v>859</v>
       </c>
-      <c r="G6" s="45">
+      <c r="G6" s="40">
         <v>925</v>
       </c>
-      <c r="H6" s="48">
+      <c r="H6" s="43">
         <v>841</v>
       </c>
       <c r="I6" s="34">
@@ -6122,10 +6140,10 @@
       <c r="F7" s="34">
         <v>494</v>
       </c>
-      <c r="G7" s="45">
+      <c r="G7" s="40">
         <v>775</v>
       </c>
-      <c r="H7" s="48">
+      <c r="H7" s="43">
         <v>504</v>
       </c>
       <c r="I7" s="34">
@@ -6184,10 +6202,10 @@
       <c r="F8" s="34">
         <v>542</v>
       </c>
-      <c r="G8" s="45">
+      <c r="G8" s="40">
         <v>582</v>
       </c>
-      <c r="H8" s="48">
+      <c r="H8" s="43">
         <v>569</v>
       </c>
       <c r="I8" s="34">
@@ -6246,10 +6264,10 @@
       <c r="F9" s="34">
         <v>494</v>
       </c>
-      <c r="G9" s="45">
+      <c r="G9" s="40">
         <v>421</v>
       </c>
-      <c r="H9" s="48">
+      <c r="H9" s="43">
         <v>164</v>
       </c>
       <c r="I9" s="34">
@@ -6308,10 +6326,10 @@
       <c r="F10" s="34">
         <v>612</v>
       </c>
-      <c r="G10" s="45">
+      <c r="G10" s="40">
         <v>244</v>
       </c>
-      <c r="H10" s="48">
+      <c r="H10" s="43">
         <v>538</v>
       </c>
       <c r="I10" s="34">
@@ -6370,10 +6388,10 @@
       <c r="F11" s="34">
         <v>417</v>
       </c>
-      <c r="G11" s="45">
+      <c r="G11" s="40">
         <v>305</v>
       </c>
-      <c r="H11" s="48">
+      <c r="H11" s="43">
         <v>430</v>
       </c>
       <c r="I11" s="34">
@@ -6432,10 +6450,10 @@
       <c r="F12" s="34">
         <v>191</v>
       </c>
-      <c r="G12" s="45">
+      <c r="G12" s="40">
         <v>706</v>
       </c>
-      <c r="H12" s="48">
+      <c r="H12" s="43">
         <v>114</v>
       </c>
       <c r="I12" s="34">
@@ -6494,10 +6512,10 @@
       <c r="F13" s="34">
         <v>667</v>
       </c>
-      <c r="G13" s="45">
+      <c r="G13" s="40">
         <v>619</v>
       </c>
-      <c r="H13" s="48">
+      <c r="H13" s="43">
         <v>259</v>
       </c>
       <c r="I13" s="34">
@@ -6556,10 +6574,10 @@
       <c r="F14" s="34">
         <v>541</v>
       </c>
-      <c r="G14" s="45">
+      <c r="G14" s="40">
         <v>603</v>
       </c>
-      <c r="H14" s="48">
+      <c r="H14" s="43">
         <v>327</v>
       </c>
       <c r="I14" s="34">
@@ -6618,10 +6636,10 @@
       <c r="F15" s="34">
         <v>210</v>
       </c>
-      <c r="G15" s="45">
+      <c r="G15" s="40">
         <v>650</v>
       </c>
-      <c r="H15" s="48">
+      <c r="H15" s="43">
         <v>951</v>
       </c>
       <c r="I15" s="34">
@@ -6680,10 +6698,10 @@
       <c r="F16" s="34">
         <v>874</v>
       </c>
-      <c r="G16" s="45">
+      <c r="G16" s="40">
         <v>183</v>
       </c>
-      <c r="H16" s="48">
+      <c r="H16" s="43">
         <v>942</v>
       </c>
       <c r="I16" s="34">
@@ -6742,10 +6760,10 @@
       <c r="F17" s="34">
         <v>391</v>
       </c>
-      <c r="G17" s="45">
+      <c r="G17" s="40">
         <v>280</v>
       </c>
-      <c r="H17" s="48">
+      <c r="H17" s="43">
         <v>270</v>
       </c>
       <c r="I17" s="34">
@@ -6804,10 +6822,10 @@
       <c r="F18" s="34">
         <v>539</v>
       </c>
-      <c r="G18" s="45">
+      <c r="G18" s="40">
         <v>962</v>
       </c>
-      <c r="H18" s="48">
+      <c r="H18" s="43">
         <v>701</v>
       </c>
       <c r="I18" s="34">
@@ -6863,10 +6881,10 @@
       <c r="F19" s="34">
         <v>268</v>
       </c>
-      <c r="G19" s="45">
+      <c r="G19" s="40">
         <v>353</v>
       </c>
-      <c r="H19" s="48">
+      <c r="H19" s="43">
         <v>551</v>
       </c>
       <c r="I19" s="34">
@@ -6922,10 +6940,10 @@
       <c r="F20" s="34">
         <v>868</v>
       </c>
-      <c r="G20" s="45">
+      <c r="G20" s="40">
         <v>637</v>
       </c>
-      <c r="H20" s="48">
+      <c r="H20" s="43">
         <v>764</v>
       </c>
       <c r="I20" s="34">
@@ -6981,10 +6999,10 @@
       <c r="F21" s="34">
         <v>912</v>
       </c>
-      <c r="G21" s="45">
+      <c r="G21" s="40">
         <v>747</v>
       </c>
-      <c r="H21" s="48">
+      <c r="H21" s="43">
         <v>316</v>
       </c>
       <c r="I21" s="34">
@@ -7026,20 +7044,20 @@
       <c r="D25" s="29"/>
     </row>
     <row r="26" spans="1:20">
-      <c r="C26" s="42" t="s">
+      <c r="C26" s="37" t="s">
         <v>342</v>
       </c>
-      <c r="D26" s="42"/>
+      <c r="D26" s="37"/>
     </row>
     <row r="27" spans="1:20">
       <c r="C27" s="29"/>
       <c r="D27" s="29"/>
     </row>
     <row r="28" spans="1:20">
-      <c r="C28" s="43" t="s">
+      <c r="C28" s="38" t="s">
         <v>343</v>
       </c>
-      <c r="D28" s="43"/>
+      <c r="D28" s="38"/>
     </row>
     <row r="29" spans="1:20">
       <c r="C29" s="29"/>
@@ -7126,16 +7144,16 @@
       <c r="A2" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="46">
+      <c r="B2" s="41">
         <v>698</v>
       </c>
-      <c r="C2" s="41">
+      <c r="C2" s="36">
         <v>924</v>
       </c>
-      <c r="D2" s="46">
+      <c r="D2" s="41">
         <v>527</v>
       </c>
-      <c r="E2" s="44">
+      <c r="E2" s="39">
         <v>716</v>
       </c>
       <c r="F2" s="32">
@@ -7150,16 +7168,16 @@
       <c r="I2" s="32">
         <v>690</v>
       </c>
-      <c r="J2" s="47">
+      <c r="J2" s="42">
         <v>984</v>
       </c>
-      <c r="K2" s="44">
+      <c r="K2" s="39">
         <v>448</v>
       </c>
-      <c r="L2" s="44">
+      <c r="L2" s="39">
         <v>439</v>
       </c>
-      <c r="M2" s="47">
+      <c r="M2" s="42">
         <v>611</v>
       </c>
       <c r="N2" s="32">
@@ -7179,16 +7197,16 @@
       <c r="A3" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="41">
+      <c r="B3" s="36">
         <v>919</v>
       </c>
-      <c r="C3" s="46">
+      <c r="C3" s="41">
         <v>966</v>
       </c>
-      <c r="D3" s="41">
+      <c r="D3" s="36">
         <v>854</v>
       </c>
-      <c r="E3" s="47">
+      <c r="E3" s="42">
         <v>688</v>
       </c>
       <c r="F3" s="32">
@@ -7203,16 +7221,16 @@
       <c r="I3" s="32">
         <v>722</v>
       </c>
-      <c r="J3" s="44">
+      <c r="J3" s="39">
         <v>846</v>
       </c>
-      <c r="K3" s="47">
+      <c r="K3" s="42">
         <v>563</v>
       </c>
-      <c r="L3" s="44">
+      <c r="L3" s="39">
         <v>733</v>
       </c>
-      <c r="M3" s="47">
+      <c r="M3" s="42">
         <v>348</v>
       </c>
       <c r="N3" s="32">
@@ -7232,16 +7250,16 @@
       <c r="A4" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="41">
+      <c r="B4" s="36">
         <v>619</v>
       </c>
-      <c r="C4" s="46">
+      <c r="C4" s="41">
         <v>312</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4" s="36">
         <v>495</v>
       </c>
-      <c r="E4" s="47">
+      <c r="E4" s="42">
         <v>836</v>
       </c>
       <c r="F4" s="32">
@@ -7256,16 +7274,16 @@
       <c r="I4" s="32">
         <v>225</v>
       </c>
-      <c r="J4" s="44">
+      <c r="J4" s="39">
         <v>135</v>
       </c>
-      <c r="K4" s="47">
+      <c r="K4" s="42">
         <v>588</v>
       </c>
-      <c r="L4" s="44">
+      <c r="L4" s="39">
         <v>167</v>
       </c>
-      <c r="M4" s="47">
+      <c r="M4" s="42">
         <v>209</v>
       </c>
       <c r="N4" s="32">
@@ -7285,16 +7303,16 @@
       <c r="A5" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="41">
+      <c r="B5" s="36">
         <v>562</v>
       </c>
-      <c r="C5" s="46">
+      <c r="C5" s="41">
         <v>255</v>
       </c>
-      <c r="D5" s="41">
+      <c r="D5" s="36">
         <v>898</v>
       </c>
-      <c r="E5" s="47">
+      <c r="E5" s="42">
         <v>215</v>
       </c>
       <c r="F5" s="32">
@@ -7309,19 +7327,19 @@
       <c r="I5" s="32">
         <v>642</v>
       </c>
-      <c r="J5" s="44">
+      <c r="J5" s="39">
         <v>352</v>
       </c>
-      <c r="K5" s="47">
+      <c r="K5" s="42">
         <v>108</v>
       </c>
       <c r="L5" s="32">
         <v>349</v>
       </c>
-      <c r="M5" s="47">
+      <c r="M5" s="42">
         <v>290</v>
       </c>
-      <c r="N5" s="44">
+      <c r="N5" s="39">
         <v>843</v>
       </c>
       <c r="O5" s="32">
@@ -7338,16 +7356,16 @@
       <c r="A6" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="41">
+      <c r="B6" s="36">
         <v>729</v>
       </c>
-      <c r="C6" s="46">
+      <c r="C6" s="41">
         <v>203</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="36">
         <v>849</v>
       </c>
-      <c r="E6" s="47">
+      <c r="E6" s="42">
         <v>518</v>
       </c>
       <c r="F6" s="32">
@@ -7362,16 +7380,16 @@
       <c r="I6" s="32">
         <v>775</v>
       </c>
-      <c r="J6" s="44">
+      <c r="J6" s="39">
         <v>289</v>
       </c>
-      <c r="K6" s="47">
+      <c r="K6" s="42">
         <v>594</v>
       </c>
-      <c r="L6" s="44">
+      <c r="L6" s="39">
         <v>937</v>
       </c>
-      <c r="M6" s="47">
+      <c r="M6" s="42">
         <v>455</v>
       </c>
       <c r="N6" s="32">
@@ -7391,16 +7409,16 @@
       <c r="A7" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="36">
         <v>137</v>
       </c>
-      <c r="C7" s="46">
+      <c r="C7" s="41">
         <v>428</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D7" s="36">
         <v>549</v>
       </c>
-      <c r="E7" s="47">
+      <c r="E7" s="42">
         <v>432</v>
       </c>
       <c r="F7" s="32">
@@ -7415,16 +7433,16 @@
       <c r="I7" s="32">
         <v>511</v>
       </c>
-      <c r="J7" s="44">
+      <c r="J7" s="39">
         <v>383</v>
       </c>
-      <c r="K7" s="47">
+      <c r="K7" s="42">
         <v>226</v>
       </c>
-      <c r="L7" s="44">
+      <c r="L7" s="39">
         <v>936</v>
       </c>
-      <c r="M7" s="47">
+      <c r="M7" s="42">
         <v>890</v>
       </c>
       <c r="N7" s="32">
@@ -7444,16 +7462,16 @@
       <c r="A8" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="41">
+      <c r="B8" s="36">
         <v>202</v>
       </c>
-      <c r="C8" s="46">
+      <c r="C8" s="41">
         <v>764</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8" s="36">
         <v>411</v>
       </c>
-      <c r="E8" s="47">
+      <c r="E8" s="42">
         <v>622</v>
       </c>
       <c r="F8" s="32">
@@ -7468,16 +7486,16 @@
       <c r="I8" s="32">
         <v>252</v>
       </c>
-      <c r="J8" s="44">
+      <c r="J8" s="39">
         <v>154</v>
       </c>
-      <c r="K8" s="47">
+      <c r="K8" s="42">
         <v>342</v>
       </c>
-      <c r="L8" s="44">
+      <c r="L8" s="39">
         <v>863</v>
       </c>
-      <c r="M8" s="47">
+      <c r="M8" s="42">
         <v>749</v>
       </c>
       <c r="N8" s="32">
@@ -7497,16 +7515,16 @@
       <c r="A9" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="41">
+      <c r="B9" s="36">
         <v>991</v>
       </c>
-      <c r="C9" s="46">
+      <c r="C9" s="41">
         <v>108</v>
       </c>
-      <c r="D9" s="41">
+      <c r="D9" s="36">
         <v>161</v>
       </c>
-      <c r="E9" s="47">
+      <c r="E9" s="42">
         <v>382</v>
       </c>
       <c r="F9" s="32">
@@ -7521,16 +7539,16 @@
       <c r="I9" s="32">
         <v>168</v>
       </c>
-      <c r="J9" s="44">
+      <c r="J9" s="39">
         <v>855</v>
       </c>
-      <c r="K9" s="47">
+      <c r="K9" s="42">
         <v>622</v>
       </c>
-      <c r="L9" s="44">
+      <c r="L9" s="39">
         <v>451</v>
       </c>
-      <c r="M9" s="47">
+      <c r="M9" s="42">
         <v>667</v>
       </c>
       <c r="N9" s="32">
@@ -7550,16 +7568,16 @@
       <c r="A10" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="41">
+      <c r="B10" s="36">
         <v>812</v>
       </c>
-      <c r="C10" s="46">
+      <c r="C10" s="41">
         <v>816</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10" s="36">
         <v>735</v>
       </c>
-      <c r="E10" s="47">
+      <c r="E10" s="42">
         <v>441</v>
       </c>
       <c r="F10" s="32">
@@ -7574,16 +7592,16 @@
       <c r="I10" s="32">
         <v>455</v>
       </c>
-      <c r="J10" s="44">
+      <c r="J10" s="39">
         <v>220</v>
       </c>
-      <c r="K10" s="47">
+      <c r="K10" s="42">
         <v>474</v>
       </c>
-      <c r="L10" s="44">
+      <c r="L10" s="39">
         <v>260</v>
       </c>
-      <c r="M10" s="47">
+      <c r="M10" s="42">
         <v>331</v>
       </c>
       <c r="N10" s="32">
@@ -7603,16 +7621,16 @@
       <c r="A11" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="41">
+      <c r="B11" s="36">
         <v>767</v>
       </c>
-      <c r="C11" s="46">
+      <c r="C11" s="41">
         <v>810</v>
       </c>
-      <c r="D11" s="41">
+      <c r="D11" s="36">
         <v>473</v>
       </c>
-      <c r="E11" s="47">
+      <c r="E11" s="42">
         <v>682</v>
       </c>
       <c r="F11" s="32">
@@ -7627,16 +7645,16 @@
       <c r="I11" s="32">
         <v>618</v>
       </c>
-      <c r="J11" s="44">
+      <c r="J11" s="39">
         <v>924</v>
       </c>
-      <c r="K11" s="47">
+      <c r="K11" s="42">
         <v>970</v>
       </c>
-      <c r="L11" s="44">
+      <c r="L11" s="39">
         <v>716</v>
       </c>
-      <c r="M11" s="47">
+      <c r="M11" s="42">
         <v>259</v>
       </c>
       <c r="N11" s="32">
@@ -7656,16 +7674,16 @@
       <c r="A12" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="41">
+      <c r="B12" s="36">
         <v>106</v>
       </c>
-      <c r="C12" s="46">
+      <c r="C12" s="41">
         <v>654</v>
       </c>
-      <c r="D12" s="41">
+      <c r="D12" s="36">
         <v>502</v>
       </c>
-      <c r="E12" s="47">
+      <c r="E12" s="42">
         <v>862</v>
       </c>
       <c r="F12" s="32">
@@ -7680,16 +7698,16 @@
       <c r="I12" s="32">
         <v>717</v>
       </c>
-      <c r="J12" s="44">
+      <c r="J12" s="39">
         <v>760</v>
       </c>
-      <c r="K12" s="47">
+      <c r="K12" s="42">
         <v>99</v>
       </c>
-      <c r="L12" s="44">
+      <c r="L12" s="39">
         <v>511</v>
       </c>
-      <c r="M12" s="47">
+      <c r="M12" s="42">
         <v>609</v>
       </c>
       <c r="N12" s="32">
@@ -7709,16 +7727,16 @@
       <c r="A13" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="41">
+      <c r="B13" s="36">
         <v>486</v>
       </c>
-      <c r="C13" s="46">
+      <c r="C13" s="41">
         <v>141</v>
       </c>
-      <c r="D13" s="41">
+      <c r="D13" s="36">
         <v>871</v>
       </c>
-      <c r="E13" s="47">
+      <c r="E13" s="42">
         <v>474</v>
       </c>
       <c r="F13" s="32">
@@ -7733,16 +7751,16 @@
       <c r="I13" s="32">
         <v>973</v>
       </c>
-      <c r="J13" s="44">
+      <c r="J13" s="39">
         <v>514</v>
       </c>
-      <c r="K13" s="47">
+      <c r="K13" s="42">
         <v>567</v>
       </c>
-      <c r="L13" s="44">
+      <c r="L13" s="39">
         <v>856</v>
       </c>
-      <c r="M13" s="47">
+      <c r="M13" s="42">
         <v>283</v>
       </c>
       <c r="N13" s="32">
@@ -7762,16 +7780,16 @@
       <c r="A14" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="41">
+      <c r="B14" s="36">
         <v>869</v>
       </c>
-      <c r="C14" s="46">
+      <c r="C14" s="41">
         <v>677</v>
       </c>
-      <c r="D14" s="41">
+      <c r="D14" s="36">
         <v>399</v>
       </c>
-      <c r="E14" s="47">
+      <c r="E14" s="42">
         <v>286</v>
       </c>
       <c r="F14" s="32">
@@ -7786,16 +7804,16 @@
       <c r="I14" s="32">
         <v>258</v>
       </c>
-      <c r="J14" s="44">
+      <c r="J14" s="39">
         <v>731</v>
       </c>
-      <c r="K14" s="47">
+      <c r="K14" s="42">
         <v>468</v>
       </c>
-      <c r="L14" s="44">
+      <c r="L14" s="39">
         <v>426</v>
       </c>
-      <c r="M14" s="47">
+      <c r="M14" s="42">
         <v>481</v>
       </c>
       <c r="N14" s="32">
@@ -7815,16 +7833,16 @@
       <c r="A15" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="41">
+      <c r="B15" s="36">
         <v>258</v>
       </c>
-      <c r="C15" s="46">
+      <c r="C15" s="41">
         <v>891</v>
       </c>
-      <c r="D15" s="41">
+      <c r="D15" s="36">
         <v>298</v>
       </c>
-      <c r="E15" s="47">
+      <c r="E15" s="42">
         <v>606</v>
       </c>
       <c r="F15" s="32">
@@ -7839,16 +7857,16 @@
       <c r="I15" s="32">
         <v>645</v>
       </c>
-      <c r="J15" s="44">
+      <c r="J15" s="39">
         <v>911</v>
       </c>
-      <c r="K15" s="47">
+      <c r="K15" s="42">
         <v>499</v>
       </c>
-      <c r="L15" s="44">
+      <c r="L15" s="39">
         <v>862</v>
       </c>
-      <c r="M15" s="47">
+      <c r="M15" s="42">
         <v>777</v>
       </c>
       <c r="N15" s="32">
@@ -7868,16 +7886,16 @@
       <c r="A16" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="41">
+      <c r="B16" s="36">
         <v>960</v>
       </c>
-      <c r="C16" s="46">
+      <c r="C16" s="41">
         <v>418</v>
       </c>
-      <c r="D16" s="41">
+      <c r="D16" s="36">
         <v>167</v>
       </c>
-      <c r="E16" s="47">
+      <c r="E16" s="42">
         <v>623</v>
       </c>
       <c r="F16" s="32">
@@ -7892,16 +7910,16 @@
       <c r="I16" s="32">
         <v>178</v>
       </c>
-      <c r="J16" s="44">
+      <c r="J16" s="39">
         <v>177</v>
       </c>
-      <c r="K16" s="47">
+      <c r="K16" s="42">
         <v>983</v>
       </c>
-      <c r="L16" s="44">
+      <c r="L16" s="39">
         <v>715</v>
       </c>
-      <c r="M16" s="47">
+      <c r="M16" s="42">
         <v>112</v>
       </c>
       <c r="N16" s="32">
@@ -7921,16 +7939,16 @@
       <c r="A17" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="41">
+      <c r="B17" s="36">
         <v>773</v>
       </c>
-      <c r="C17" s="46">
+      <c r="C17" s="41">
         <v>153</v>
       </c>
-      <c r="D17" s="41">
+      <c r="D17" s="36">
         <v>116</v>
       </c>
-      <c r="E17" s="47">
+      <c r="E17" s="42">
         <v>789</v>
       </c>
       <c r="F17" s="32">
@@ -7945,16 +7963,16 @@
       <c r="I17" s="32">
         <v>332</v>
       </c>
-      <c r="J17" s="44">
+      <c r="J17" s="39">
         <v>864</v>
       </c>
-      <c r="K17" s="47">
+      <c r="K17" s="42">
         <v>849</v>
       </c>
-      <c r="L17" s="44">
+      <c r="L17" s="39">
         <v>128</v>
       </c>
-      <c r="M17" s="47">
+      <c r="M17" s="42">
         <v>426</v>
       </c>
       <c r="N17" s="32">
@@ -7974,16 +7992,16 @@
       <c r="A18" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="41">
+      <c r="B18" s="36">
         <v>779</v>
       </c>
-      <c r="C18" s="46">
+      <c r="C18" s="41">
         <v>532</v>
       </c>
-      <c r="D18" s="41">
+      <c r="D18" s="36">
         <v>970</v>
       </c>
-      <c r="E18" s="47">
+      <c r="E18" s="42">
         <v>673</v>
       </c>
       <c r="F18" s="32">
@@ -7998,16 +8016,16 @@
       <c r="I18" s="32">
         <v>925</v>
       </c>
-      <c r="J18" s="44">
+      <c r="J18" s="39">
         <v>601</v>
       </c>
-      <c r="K18" s="47">
+      <c r="K18" s="42">
         <v>643</v>
       </c>
-      <c r="L18" s="44">
+      <c r="L18" s="39">
         <v>108</v>
       </c>
-      <c r="M18" s="47">
+      <c r="M18" s="42">
         <v>433</v>
       </c>
       <c r="N18" s="32">
@@ -8027,16 +8045,16 @@
       <c r="A19" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="41">
+      <c r="B19" s="36">
         <v>906</v>
       </c>
-      <c r="C19" s="46">
+      <c r="C19" s="41">
         <v>893</v>
       </c>
-      <c r="D19" s="41">
+      <c r="D19" s="36">
         <v>292</v>
       </c>
-      <c r="E19" s="47">
+      <c r="E19" s="42">
         <v>954</v>
       </c>
       <c r="F19" s="32">
@@ -8051,16 +8069,16 @@
       <c r="I19" s="32">
         <v>853</v>
       </c>
-      <c r="J19" s="44">
+      <c r="J19" s="39">
         <v>351</v>
       </c>
-      <c r="K19" s="47">
+      <c r="K19" s="42">
         <v>791</v>
       </c>
-      <c r="L19" s="44">
+      <c r="L19" s="39">
         <v>565</v>
       </c>
-      <c r="M19" s="47">
+      <c r="M19" s="42">
         <v>941</v>
       </c>
       <c r="N19" s="32">
@@ -8080,16 +8098,16 @@
       <c r="A20" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="41">
+      <c r="B20" s="36">
         <v>857</v>
       </c>
-      <c r="C20" s="46">
+      <c r="C20" s="41">
         <v>993</v>
       </c>
-      <c r="D20" s="41">
+      <c r="D20" s="36">
         <v>474</v>
       </c>
-      <c r="E20" s="47">
+      <c r="E20" s="42">
         <v>814</v>
       </c>
       <c r="F20" s="32">
@@ -8104,16 +8122,16 @@
       <c r="I20" s="32">
         <v>809</v>
       </c>
-      <c r="J20" s="44">
+      <c r="J20" s="39">
         <v>574</v>
       </c>
-      <c r="K20" s="47">
+      <c r="K20" s="42">
         <v>224</v>
       </c>
-      <c r="L20" s="44">
+      <c r="L20" s="39">
         <v>481</v>
       </c>
-      <c r="M20" s="47">
+      <c r="M20" s="42">
         <v>835</v>
       </c>
       <c r="N20" s="32">
@@ -8133,16 +8151,16 @@
       <c r="A21" s="33" t="s">
         <v>289</v>
       </c>
-      <c r="B21" s="41">
+      <c r="B21" s="36">
         <v>523</v>
       </c>
-      <c r="C21" s="46">
+      <c r="C21" s="41">
         <v>845</v>
       </c>
-      <c r="D21" s="41">
+      <c r="D21" s="36">
         <v>253</v>
       </c>
-      <c r="E21" s="47">
+      <c r="E21" s="42">
         <v>798</v>
       </c>
       <c r="F21" s="32">
@@ -8157,16 +8175,16 @@
       <c r="I21" s="32">
         <v>993</v>
       </c>
-      <c r="J21" s="44">
+      <c r="J21" s="39">
         <v>943</v>
       </c>
-      <c r="K21" s="47">
+      <c r="K21" s="42">
         <v>690</v>
       </c>
-      <c r="L21" s="44">
+      <c r="L21" s="39">
         <v>865</v>
       </c>
-      <c r="M21" s="47">
+      <c r="M21" s="42">
         <v>176</v>
       </c>
       <c r="N21" s="32">
@@ -8183,16 +8201,16 @@
       </c>
     </row>
     <row r="27" spans="1:17">
-      <c r="B27" s="42" t="s">
+      <c r="B27" s="37" t="s">
         <v>342</v>
       </c>
-      <c r="C27" s="42"/>
+      <c r="C27" s="37"/>
     </row>
     <row r="29" spans="1:17">
-      <c r="B29" s="43" t="s">
+      <c r="B29" s="38" t="s">
         <v>343</v>
       </c>
-      <c r="C29" s="43"/>
+      <c r="C29" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8231,16 +8249,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="37" t="s">
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
